--- a/docs/화면 구성최종.xlsx
+++ b/docs/화면 구성최종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Omachinosensei\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6DDEA-F571-4267-BA39-ECF160B06DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840F4842-DC52-403F-9F75-424605BC6AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{9131CFC9-564C-4EFE-B594-044BEFF68491}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{9131CFC9-564C-4EFE-B594-044BEFF68491}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>설명슬라이드</t>
     <phoneticPr fontId="2"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>계정정보</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -178,14 +174,6 @@
   </si>
   <si>
     <t>계정만들기</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>계정가입 페이지</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>선생님 리스트</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -249,23 +237,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>회원가입3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>회원가입완료</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>로그인</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>로그인화면</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>설명(슬라이드(</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -300,10 +276,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>설정</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>위치정보 동으ㅏㅣ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -463,10 +435,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>선생등록 화면</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>가르치려는 언어</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -538,11 +506,59 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>대상리스트</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>민수</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>설명(슬라이드(slideActivity)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>선생님 리스트(homeActivity)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>마이페이지(mypageActivity)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>계정가입 페이지(registrationActivity)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>로그인화면(loginActivity)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>설정(settingActivity)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>선생등록 화면(registerTutor)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>newMemberInput</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>newMemberConfirm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>newMemberSMScertification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>newMemberComplete</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>대상리스트(chatActivity)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tabActivity</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1069,10 +1085,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>215153</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -1093,8 +1109,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4186518" y="681318"/>
-          <a:ext cx="1093694" cy="2931458"/>
+          <a:off x="1490382" y="3137647"/>
+          <a:ext cx="3868271" cy="508747"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1228,16 +1244,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>242048</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>519953</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1251,9 +1267,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6293224" y="484094"/>
-          <a:ext cx="2294964" cy="1685365"/>
+        <a:xfrm flipV="1">
+          <a:off x="1355912" y="2431676"/>
+          <a:ext cx="7395882" cy="941296"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1413,6 +1429,59 @@
         <a:xfrm>
           <a:off x="6024282" y="591671"/>
           <a:ext cx="2635624" cy="3182470"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166C8B8D-865D-49A4-B4FC-CC9AB233B611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1714500" y="549089"/>
+          <a:ext cx="3675529" cy="2353235"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1744,7 +1813,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
@@ -1836,67 +1905,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE81968-7EDB-4E54-AE22-D8D0BC8DCE41}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="B1" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1904,53 +1970,53 @@
         <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="K5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="K5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+    </row>
+    <row r="6" spans="1:20">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1958,113 +2024,128 @@
         <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>44</v>
+      </c>
+      <c r="R8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>55</v>
+      </c>
+      <c r="S9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>70</v>
+      </c>
+      <c r="T10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="K11" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="N12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="7"/>
       <c r="N13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="N14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="I16" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="9:18">
       <c r="I17" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J17" s="8"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="9:18">
       <c r="I18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="O18" s="6"/>
     </row>
@@ -2072,61 +2153,62 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="9:18">
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="9:18">
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="9:18">
       <c r="N22" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="9:18">
       <c r="N23" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="9:18">
       <c r="N24" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="9:18">
       <c r="N25" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="9:18">
       <c r="N26" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>